--- a/FDCPA Exam.xlsx
+++ b/FDCPA Exam.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkirk\source\repos\CMS_LearningCenterMVC_20220328\CMS_LearningCenterMVC\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E6824B-5BB3-4BF3-868E-2117A7706BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{3B1943FA-85AC-4B28-BCFA-DD1DF814210B}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="101">
   <si>
     <t>Question</t>
   </si>
@@ -335,13 +329,16 @@
   </si>
   <si>
     <t xml:space="preserve">A debt collector can overshadow the validation period in collection letters, but not in collection calls. </t>
+  </si>
+  <si>
+    <t>FileName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,7 +465,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -520,7 +517,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -714,32 +711,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B561FFF-BA9F-46AE-A9D6-B0A6D205AC87}">
-  <dimension ref="A1:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="121.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.85546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -767,8 +765,11 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -791,7 +792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -814,7 +815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -837,7 +838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -860,7 +861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -883,7 +884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -902,7 +903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -921,7 +922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -940,7 +941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -959,7 +960,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -982,7 +983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
@@ -1005,7 +1006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
@@ -1028,7 +1029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10">
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
@@ -1051,7 +1052,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10">
       <c r="A15" s="6" t="s">
         <v>9</v>
       </c>
@@ -1074,7 +1075,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10">
       <c r="A16" s="6" t="s">
         <v>9</v>
       </c>
@@ -1097,7 +1098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
         <v>9</v>
       </c>
@@ -1116,7 +1117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
@@ -1139,7 +1140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
         <v>9</v>
       </c>
@@ -1162,7 +1163,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
         <v>9</v>
       </c>
@@ -1185,7 +1186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
         <v>9</v>
       </c>
@@ -1208,7 +1209,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
         <v>9</v>
       </c>
@@ -1231,7 +1232,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23" s="6" t="s">
         <v>9</v>
       </c>
@@ -1250,7 +1251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24" s="6" t="s">
         <v>9</v>
       </c>
@@ -1269,7 +1270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25" s="6" t="s">
         <v>9</v>
       </c>
@@ -1288,7 +1289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26" s="6" t="s">
         <v>9</v>
       </c>
